--- a/R_C14_rates calculation/0_data_used/C14_studies.xlsx
+++ b/R_C14_rates calculation/0_data_used/C14_studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_rates calculation/data_used/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_rates calculation/0_data_used/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78367F67-26F8-124D-B1C8-20D55FE0C113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3823B63-712F-A243-BACD-1BA91AA25F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38620" yWindow="-7240" windowWidth="38400" windowHeight="21140" xr2:uid="{52B9FA18-B311-7847-A71C-E6E77E9CBC4B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19120" activeTab="1" xr2:uid="{52B9FA18-B311-7847-A71C-E6E77E9CBC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="161">
   <si>
     <t>Study</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>FCM, petB</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -568,24 +571,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,2149 +901,2147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9D9511-25B3-5E41-B546-94EF8A5BB114}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+    <sheetView zoomScale="89" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="2"/>
-    <col min="7" max="7" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2">
         <v>0.82</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2">
         <v>7.68</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3">
         <v>17.93</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3">
         <v>193.16</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4">
         <v>3.4</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4">
         <v>17.100000000000001</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5">
         <v>32</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5">
         <v>258.39999999999998</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>1.8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6">
         <v>19</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6">
         <v>85.5</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>2.8</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7">
         <v>86.1</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7">
         <v>425.5</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8">
         <v>3.17</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8">
         <v>52.5</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" t="s">
         <v>100</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9">
         <v>3.17</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9">
         <v>13.04</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P9" t="s">
         <v>100</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10">
         <v>14.7</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10">
         <v>52.5</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" t="s">
         <v>100</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="4">
         <v>4.38</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="4">
         <v>29.75</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12">
         <v>7.5</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12">
         <v>94.94</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13">
         <v>7.5</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13">
         <v>15.84</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>3.1</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14">
         <v>59.46</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14">
         <v>94.94</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>0.95</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15">
         <v>2.2400000000000002</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15">
         <v>6.67</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" t="s">
         <v>48</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16">
         <v>4.7</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16">
         <v>5.9</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" t="s">
         <v>100</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17">
         <v>2.7</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17">
         <v>3.8</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="P17" t="s">
         <v>100</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="Q17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" t="s">
         <v>45</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" t="s">
         <v>48</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18">
         <v>8.1</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18">
         <v>14.3</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="P18" t="s">
         <v>100</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
         <v>45</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" t="s">
         <v>48</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19">
         <v>16.399999999999999</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19">
         <v>17.5</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="P19" t="s">
         <v>100</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>1.6</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
         <v>56</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20">
         <v>8.33</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20">
         <v>11.67</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="P20" t="s">
         <v>100</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="Q20" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>1.6</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" t="s">
         <v>124</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
         <v>56</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" t="s">
         <v>31</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21">
         <v>3.33</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21">
         <v>7.08</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" t="s">
         <v>100</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" t="s">
         <v>56</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22">
         <v>13.3</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22">
         <v>107.5</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="P22" t="s">
         <v>100</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="Q22" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" t="s">
         <v>56</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" t="s">
         <v>31</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23">
         <v>22.92</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23">
         <v>182.08</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="P23" t="s">
         <v>100</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="Q23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>2.5</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" t="s">
         <v>124</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" t="s">
         <v>56</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" t="s">
         <v>31</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24">
         <v>13.3</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24">
         <v>22.5</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>2.5</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" t="s">
         <v>124</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" t="s">
         <v>56</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M25" t="s">
         <v>31</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25">
         <v>22.92</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25">
         <v>25.83</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>4.8</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" t="s">
         <v>124</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" t="s">
         <v>56</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" t="s">
         <v>31</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26">
         <v>57.92</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26">
         <v>107.5</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>4.8</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" t="s">
         <v>124</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" t="s">
         <v>56</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27">
         <v>30.83</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27">
         <v>182.08</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>2.15</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" t="s">
         <v>30</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28">
         <v>0.64</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28">
         <v>55.45</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="P28" t="s">
         <v>100</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="Q28" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>2.15</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29">
         <v>1.87</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29">
         <v>90.05</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="P29" t="s">
         <v>100</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="Q29" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" s="2" t="s">
+      <c r="H30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" t="s">
         <v>45</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" t="s">
         <v>30</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="4">
         <v>0.08</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="4">
         <v>0.97</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2" t="s">
+      <c r="H31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" t="s">
         <v>45</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" t="s">
         <v>30</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="4">
         <v>0.38</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="4">
         <v>9.6300000000000008</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
         <v>1.2</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J32" s="2" t="s">
+      <c r="H32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" t="s">
         <v>45</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" t="s">
         <v>30</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="4">
         <v>0.31</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="4">
         <v>10.63</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>1.2</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J33" s="2" t="s">
+      <c r="H33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" t="s">
         <v>45</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M33" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="4">
         <v>0.54</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33" s="4">
         <v>13.93</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
         <v>3.6</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J34" s="2" t="s">
+      <c r="H34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" t="s">
         <v>45</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M34" t="s">
         <v>30</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="4">
         <v>15.73</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="4">
         <v>117.61</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
         <v>3.6</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J35" s="2" t="s">
+      <c r="H35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" t="s">
         <v>45</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M35" t="s">
         <v>30</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="4">
         <v>23.2</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="4">
         <v>83.78</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>0.62</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2" t="s">
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
         <v>67</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" t="s">
         <v>69</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M36" t="s">
         <v>65</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="4">
         <v>2.6</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="4">
         <v>8</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="P36" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I37" s="2" t="s">
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
         <v>67</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" t="s">
         <v>56</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" t="s">
         <v>69</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="M37" t="s">
         <v>65</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N37" s="4">
         <v>28.9</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="4">
         <v>56.6</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="P37" t="s">
         <v>100</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="Q37" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I38" s="2" t="s">
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
         <v>67</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" t="s">
         <v>56</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" t="s">
         <v>69</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="M38" t="s">
         <v>65</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N38" s="4">
         <v>73.400000000000006</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38" s="4">
         <v>151.4</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="P38" t="s">
         <v>100</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="Q38" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s">
         <v>64</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I39" s="2" t="s">
+      <c r="G39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
         <v>67</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" t="s">
         <v>56</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" t="s">
         <v>69</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="M39" t="s">
         <v>65</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39" s="4">
         <v>57.2</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="4">
         <v>99.4</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="P39" t="s">
         <v>100</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="Q39" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>0.7</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I40" s="2" t="s">
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
         <v>67</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" t="s">
         <v>73</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" t="s">
         <v>74</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="M40" t="s">
         <v>76</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40" s="4">
         <v>0.17</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="4">
         <v>1.86</v>
       </c>
-      <c r="P40" s="2" t="s">
+      <c r="P40" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>1.5</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" t="s">
         <v>75</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2" t="s">
+      <c r="G41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
         <v>67</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" t="s">
         <v>73</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" t="s">
         <v>74</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="M41" t="s">
         <v>76</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="4">
         <v>4.96</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="4">
         <v>18.47</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="P41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H42" s="2" t="s">
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s">
         <v>40</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" t="s">
         <v>81</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" t="s">
         <v>82</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M42" t="s">
         <v>83</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N42" s="4">
         <v>3.69</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="4">
         <v>9.75</v>
       </c>
-      <c r="P42" s="2" t="s">
+      <c r="P42" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" s="2" t="s">
+      <c r="G43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" t="s">
         <v>40</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" t="s">
         <v>81</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" t="s">
         <v>82</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="M43" t="s">
         <v>83</v>
       </c>
-      <c r="N43" s="6">
+      <c r="N43" s="4">
         <v>32.24</v>
       </c>
-      <c r="O43" s="6">
+      <c r="O43" s="4">
         <v>61.5</v>
       </c>
-      <c r="P43" s="2" t="s">
+      <c r="P43" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
         <v>84</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I44" s="2" t="s">
+      <c r="G44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
         <v>67</v>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" t="s">
         <v>45</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44">
         <v>120</v>
       </c>
-      <c r="M44" s="2" t="s">
+      <c r="M44" t="s">
         <v>65</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N44" s="4">
         <v>1.8</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O44" s="4">
         <v>3.11</v>
       </c>
-      <c r="P44" s="2" t="s">
+      <c r="P44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
         <v>84</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I45" s="2" t="s">
+      <c r="G45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
         <v>67</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" t="s">
         <v>45</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45">
         <v>120</v>
       </c>
-      <c r="M45" s="2" t="s">
+      <c r="M45" t="s">
         <v>65</v>
       </c>
-      <c r="N45" s="6">
+      <c r="N45" s="4">
         <v>32.6</v>
       </c>
-      <c r="O45" s="6">
+      <c r="O45" s="4">
         <v>98.2</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="P45" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
         <v>84</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I46" s="2" t="s">
+      <c r="G46" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
         <v>67</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" t="s">
         <v>45</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46">
         <v>120</v>
       </c>
-      <c r="M46" s="2" t="s">
+      <c r="M46" t="s">
         <v>65</v>
       </c>
-      <c r="N46" s="6">
+      <c r="N46" s="4">
         <v>229.02</v>
       </c>
-      <c r="O46" s="6">
+      <c r="O46" s="4">
         <v>340.45</v>
       </c>
-      <c r="P46" s="2" t="s">
+      <c r="P46" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>108</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N48" s="6"/>
+      <c r="N48" s="4"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" t="s">
         <v>121</v>
       </c>
-      <c r="N49" s="6"/>
+      <c r="N49" s="4"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N51" s="6"/>
+      <c r="N51" s="4"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3055,25 +3052,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D187953D-2725-B940-BC52-CC9C71F37EA8}">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="1" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -3081,2082 +3078,2104 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>140</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>141</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>142</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>136</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2">
+        <v>1994</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" t="s">
         <v>144</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2">
         <v>0.82</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2">
         <v>7.68</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3">
+        <v>1994</v>
+      </c>
+      <c r="C3" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" t="s">
         <v>144</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3">
         <v>17.93</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3">
         <v>193.16</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" t="s">
         <v>77</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4">
+        <v>2010</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" t="s">
         <v>144</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4">
         <v>3.4</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4">
         <v>17.100000000000001</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5">
+        <v>2010</v>
+      </c>
+      <c r="C5" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="1">
         <v>1.8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" t="s">
         <v>144</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5">
         <v>19</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5">
         <v>85.5</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" t="s">
         <v>100</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" t="s">
         <v>133</v>
       </c>
-      <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6">
+        <v>2010</v>
+      </c>
+      <c r="C6" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="1">
         <v>2.8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
         <v>153</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" t="s">
         <v>144</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6">
         <v>86.1</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6">
         <v>425.5</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" t="s">
         <v>100</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" t="s">
         <v>133</v>
       </c>
-      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7">
+        <v>2011</v>
+      </c>
+      <c r="C7" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" t="s">
         <v>144</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7">
         <v>3.17</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7">
         <v>13.04</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" t="s">
         <v>100</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" t="s">
         <v>133</v>
       </c>
-      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8">
+        <v>2011</v>
+      </c>
+      <c r="C8" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
         <v>154</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" t="s">
         <v>144</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8">
         <v>14.7</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8">
         <v>52.5</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" t="s">
         <v>100</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" t="s">
         <v>133</v>
       </c>
-      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" t="s">
         <v>144</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9">
         <v>7.5</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9">
         <v>15.84</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10">
+        <v>2014</v>
+      </c>
+      <c r="C10" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="1">
         <v>3.1</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" t="s">
         <v>144</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10">
         <v>59.46</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10">
         <v>94.94</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" t="s">
         <v>77</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11">
+        <v>2014</v>
+      </c>
+      <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="1">
         <v>0.95</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" t="s">
         <v>144</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11">
         <v>2.2400000000000002</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11">
         <v>6.67</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12">
+        <v>2014</v>
+      </c>
+      <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2" t="s">
+      <c r="E12" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" t="s">
         <v>144</v>
       </c>
-      <c r="M12" s="6">
+      <c r="N12" s="4">
         <v>1.8</v>
       </c>
-      <c r="N12" s="6">
+      <c r="O12" s="4">
         <v>3.11</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13">
+        <v>2014</v>
+      </c>
+      <c r="C13" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" t="s">
         <v>144</v>
       </c>
-      <c r="M13" s="6">
+      <c r="N13" s="4">
         <v>32.6</v>
       </c>
-      <c r="N13" s="6">
+      <c r="O13" s="4">
         <v>98.2</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14">
+        <v>2014</v>
+      </c>
+      <c r="C14" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
         <v>157</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" t="s">
         <v>144</v>
       </c>
-      <c r="M14" s="6">
+      <c r="N14" s="4">
         <v>229.02</v>
       </c>
-      <c r="N14" s="6">
+      <c r="O14" s="4">
         <v>340.45</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15">
+        <v>2015</v>
+      </c>
+      <c r="C15" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" t="s">
         <v>156</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" t="s">
         <v>144</v>
       </c>
-      <c r="M15" s="6">
+      <c r="N15" s="4">
         <v>4.38</v>
       </c>
-      <c r="N15" s="6">
+      <c r="O15" s="4">
         <v>29.75</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2" t="s">
+      <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" t="s">
         <v>143</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16">
         <v>4.7</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16">
         <v>5.9</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" t="s">
         <v>77</v>
       </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2" t="s">
+      <c r="E17" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" t="s">
         <v>149</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" t="s">
         <v>143</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17">
         <v>2.7</v>
       </c>
-      <c r="N17" s="2">
+      <c r="O17">
         <v>3.8</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" t="s">
         <v>77</v>
       </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C18" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
         <v>149</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" t="s">
         <v>143</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18">
         <v>8.1</v>
       </c>
-      <c r="N18" s="2">
+      <c r="O18">
         <v>14.3</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" t="s">
         <v>100</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="Q18" t="s">
         <v>135</v>
       </c>
-      <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C19" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" t="s">
         <v>143</v>
       </c>
-      <c r="M19" s="2">
+      <c r="N19">
         <v>16.399999999999999</v>
       </c>
-      <c r="N19" s="2">
+      <c r="O19">
         <v>17.5</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="P19" t="s">
         <v>100</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="Q19" t="s">
         <v>135</v>
       </c>
-      <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="1">
         <v>0.7</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
         <v>152</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" t="s">
         <v>131</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" t="s">
         <v>76</v>
       </c>
-      <c r="M20" s="6">
+      <c r="N20" s="4">
         <v>0.17</v>
       </c>
-      <c r="N20" s="6">
+      <c r="O20" s="4">
         <v>1.86</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="P20" t="s">
         <v>77</v>
       </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C21" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="1">
         <v>1.5</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
         <v>152</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" t="s">
         <v>131</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" t="s">
         <v>76</v>
       </c>
-      <c r="M21" s="6">
+      <c r="N21" s="4">
         <v>4.96</v>
       </c>
-      <c r="N21" s="6">
+      <c r="O21" s="4">
         <v>18.47</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" t="s">
         <v>77</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="1">
         <v>0.62</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
         <v>158</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" t="s">
         <v>144</v>
       </c>
-      <c r="M22" s="6">
+      <c r="N22" s="4">
         <v>2.6</v>
       </c>
-      <c r="N22" s="6">
+      <c r="O22" s="4">
         <v>8</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="P22" t="s">
         <v>77</v>
       </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C23" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2" t="s">
+      <c r="E23" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
         <v>158</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" t="s">
         <v>56</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" t="s">
         <v>144</v>
       </c>
-      <c r="M23" s="6">
+      <c r="N23" s="4">
         <v>28.9</v>
       </c>
-      <c r="N23" s="6">
+      <c r="O23" s="4">
         <v>56.6</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="P23" t="s">
         <v>100</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="Q23" t="s">
         <v>137</v>
       </c>
-      <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C24" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
         <v>158</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="H24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" t="s">
         <v>56</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" t="s">
         <v>144</v>
       </c>
-      <c r="M24" s="6">
+      <c r="N24" s="4">
         <v>73.400000000000006</v>
       </c>
-      <c r="N24" s="6">
+      <c r="O24" s="4">
         <v>151.4</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="P24" t="s">
         <v>100</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="Q24" t="s">
         <v>137</v>
       </c>
-      <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C25" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="7">
+      <c r="D25" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
         <v>158</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" t="s">
         <v>56</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" t="s">
         <v>144</v>
       </c>
-      <c r="M25" s="6">
+      <c r="N25" s="4">
         <v>57.2</v>
       </c>
-      <c r="N25" s="6">
+      <c r="O25" s="4">
         <v>99.4</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" t="s">
         <v>100</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="Q25" t="s">
         <v>137</v>
       </c>
-      <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C26" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="1">
         <v>1.6</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" t="s">
         <v>151</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" t="s">
         <v>81</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" t="s">
         <v>56</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="M26" t="s">
         <v>144</v>
       </c>
-      <c r="M26" s="2">
+      <c r="N26">
         <v>8.33</v>
       </c>
-      <c r="N26" s="2">
+      <c r="O26">
         <v>11.67</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="P26" t="s">
         <v>100</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="Q26" t="s">
         <v>134</v>
       </c>
-      <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C27" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="1">
         <v>1.6</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" t="s">
         <v>151</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" t="s">
         <v>81</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" t="s">
         <v>56</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" t="s">
         <v>144</v>
       </c>
-      <c r="M27" s="2">
+      <c r="N27">
         <v>3.33</v>
       </c>
-      <c r="N27" s="2">
+      <c r="O27">
         <v>7.08</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" t="s">
         <v>100</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="Q27" t="s">
         <v>134</v>
       </c>
-      <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C28" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="1">
         <v>2.5</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" t="s">
         <v>151</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" t="s">
         <v>81</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" t="s">
         <v>56</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="M28" t="s">
         <v>144</v>
       </c>
-      <c r="M28" s="2">
+      <c r="N28">
         <v>13.3</v>
       </c>
-      <c r="N28" s="2">
+      <c r="O28">
         <v>22.5</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="P28" t="s">
         <v>100</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="Q28" t="s">
         <v>134</v>
       </c>
-      <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C29" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="1">
         <v>2.5</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" t="s">
         <v>81</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" t="s">
         <v>56</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" t="s">
         <v>144</v>
       </c>
-      <c r="M29" s="2">
+      <c r="N29">
         <v>22.92</v>
       </c>
-      <c r="N29" s="2">
+      <c r="O29">
         <v>25.83</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="P29" t="s">
         <v>100</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="Q29" t="s">
         <v>134</v>
       </c>
-      <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C30" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="1">
         <v>4.8</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" t="s">
         <v>81</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" t="s">
         <v>56</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" t="s">
         <v>144</v>
       </c>
-      <c r="M30" s="2">
+      <c r="N30">
         <v>57.92</v>
       </c>
-      <c r="N30" s="2">
+      <c r="O30">
         <v>107.5</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="P30" t="s">
         <v>100</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="Q30" t="s">
         <v>134</v>
       </c>
-      <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C31" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="1">
         <v>4.8</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" t="s">
         <v>151</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" t="s">
         <v>81</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" t="s">
         <v>56</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" t="s">
         <v>144</v>
       </c>
-      <c r="M31" s="2">
+      <c r="N31">
         <v>30.83</v>
       </c>
-      <c r="N31" s="2">
+      <c r="O31">
         <v>182.08</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="P31" t="s">
         <v>100</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="Q31" t="s">
         <v>134</v>
       </c>
-      <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C32" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
         <v>150</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" t="s">
         <v>81</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" t="s">
         <v>132</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="M32" t="s">
         <v>144</v>
       </c>
-      <c r="M32" s="6">
+      <c r="N32" s="4">
         <v>3.69</v>
       </c>
-      <c r="N32" s="6">
+      <c r="O32" s="4">
         <v>9.75</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="P32" t="s">
         <v>77</v>
       </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C33" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s">
         <v>150</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" t="s">
         <v>81</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" t="s">
         <v>132</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="M33" t="s">
         <v>144</v>
       </c>
-      <c r="M33" s="6">
+      <c r="N33" s="4">
         <v>32.24</v>
       </c>
-      <c r="N33" s="6">
+      <c r="O33" s="4">
         <v>61.5</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="P33" t="s">
         <v>77</v>
       </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C34" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="3">
+      <c r="D34" s="1">
         <v>2.15</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
         <v>149</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" t="s">
         <v>81</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" t="s">
         <v>45</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="M34" t="s">
         <v>145</v>
       </c>
-      <c r="M34" s="2">
+      <c r="N34">
         <v>0.64</v>
       </c>
-      <c r="N34" s="2">
+      <c r="O34">
         <v>55.45</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="P34" t="s">
         <v>100</v>
       </c>
-      <c r="P34" s="2" t="s">
+      <c r="Q34" t="s">
         <v>138</v>
       </c>
-      <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C35" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="3">
+      <c r="D35" s="1">
         <v>2.15</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" t="s">
         <v>147</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" t="s">
         <v>81</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" t="s">
         <v>45</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="M35" t="s">
         <v>145</v>
       </c>
-      <c r="M35" s="2">
+      <c r="N35">
         <v>1.87</v>
       </c>
-      <c r="N35" s="2">
+      <c r="O35">
         <v>90.05</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="P35" t="s">
         <v>100</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="Q35" t="s">
         <v>138</v>
       </c>
-      <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C36" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" t="s">
         <v>148</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
         <v>67</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" t="s">
         <v>45</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="M36" t="s">
         <v>145</v>
       </c>
-      <c r="M36" s="6">
+      <c r="N36" s="4">
         <v>0.08</v>
       </c>
-      <c r="N36" s="6">
+      <c r="O36" s="4">
         <v>0.97</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="P36" t="s">
         <v>100</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="Q36" t="s">
         <v>159</v>
       </c>
-      <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C37" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" t="s">
         <v>148</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
         <v>67</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="L37" t="s">
         <v>45</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="M37" t="s">
         <v>145</v>
       </c>
-      <c r="M37" s="6">
+      <c r="N37" s="4">
         <v>0.38</v>
       </c>
-      <c r="N37" s="6">
+      <c r="O37" s="4">
         <v>9.6300000000000008</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="P37" t="s">
         <v>100</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="Q37" t="s">
         <v>159</v>
       </c>
-      <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C38" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="3">
+      <c r="D38" s="1">
         <v>1.2</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" t="s">
         <v>148</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" t="s">
         <v>39</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
         <v>67</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="K38" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="L38" t="s">
         <v>45</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="M38" t="s">
         <v>145</v>
       </c>
-      <c r="M38" s="6">
+      <c r="N38" s="4">
         <v>0.31</v>
       </c>
-      <c r="N38" s="6">
+      <c r="O38" s="4">
         <v>10.63</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="P38" t="s">
         <v>100</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="Q38" t="s">
         <v>135</v>
       </c>
-      <c r="Q38" s="2"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C39" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="3">
+      <c r="D39" s="1">
         <v>1.2</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" t="s">
         <v>148</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
         <v>67</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="L39" t="s">
         <v>45</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="M39" t="s">
         <v>145</v>
       </c>
-      <c r="M39" s="6">
+      <c r="N39" s="4">
         <v>0.54</v>
       </c>
-      <c r="N39" s="6">
+      <c r="O39" s="4">
         <v>13.93</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="P39" t="s">
         <v>100</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="Q39" t="s">
         <v>135</v>
       </c>
-      <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C40" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="3">
+      <c r="D40" s="1">
         <v>3.6</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" t="s">
         <v>148</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" t="s">
         <v>39</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
         <v>67</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="L40" t="s">
         <v>45</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="M40" t="s">
         <v>145</v>
       </c>
-      <c r="M40" s="6">
+      <c r="N40" s="4">
         <v>15.73</v>
       </c>
-      <c r="N40" s="6">
+      <c r="O40" s="4">
         <v>117.61</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="P40" t="s">
         <v>100</v>
       </c>
-      <c r="P40" s="2" t="s">
+      <c r="Q40" t="s">
         <v>135</v>
       </c>
-      <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C41" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="3">
+      <c r="D41" s="1">
         <v>3.6</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" t="s">
         <v>148</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
         <v>67</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="K41" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="L41" t="s">
         <v>45</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="M41" t="s">
         <v>145</v>
       </c>
-      <c r="M41" s="6">
+      <c r="N41" s="4">
         <v>23.2</v>
       </c>
-      <c r="N41" s="6">
+      <c r="O41" s="4">
         <v>83.78</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="P41" t="s">
         <v>100</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="Q41" t="s">
         <v>135</v>
       </c>
-      <c r="Q41" s="2"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
